--- a/biology/Botanique/Millepertuis_des_montagnes/Millepertuis_des_montagnes.xlsx
+++ b/biology/Botanique/Millepertuis_des_montagnes/Millepertuis_des_montagnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypericum montanum
 Le Millepertuis des montagnes (Hypericum montanum) est une espèce de plantes à fleurs de la famille des Clusiacées selon la classification classique (ou des Hypéricacées selon la classification phylogénétique).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace de 30 à 80 cm environ, dont les parties de renouvellement sont situées au niveau du sol.
 La tige est de forme ronde et dressée, ne découvrant aucune ligne en saillie.
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est trouvée en Europe et presque partout en France, plus fréquente en montagne.
 </t>
@@ -579,7 +595,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Aquitainee et en Basse-Normandie. Elle figure sur la liste rouge des plantes du Nord-Pas-de-Calais.
 </t>
